--- a/Mifos Automation Excels/Client/2685-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-LATEREPAY-RunPERon15FEB-AccCL15FEB-REPAY10thMAR-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2685-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-LATEREPAY-RunPERon15FEB-AccCL15FEB-REPAY10thMAR-Newcreateloan1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>Head Office</t>
   </si>
@@ -1052,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,25 +1101,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>147</v>
+        <v>6891</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="17">
-        <v>42095</v>
+        <v>41708</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="14">
-        <v>289.73</v>
+        <v>56</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1000</v>
       </c>
       <c r="F2" s="14">
-        <v>0</v>
+        <v>961.54</v>
       </c>
       <c r="G2" s="14">
-        <v>289.73</v>
+        <v>38.46</v>
       </c>
       <c r="H2" s="14">
         <v>0</v>
@@ -1127,33 +1127,33 @@
       <c r="I2" s="14">
         <v>0</v>
       </c>
-      <c r="J2" s="14">
-        <v>0</v>
+      <c r="J2" s="19">
+        <v>3216.49</v>
       </c>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
-        <v>145</v>
+        <v>6886</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="17">
-        <v>41708</v>
+        <v>41685</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="13">
-        <v>1000</v>
+        <v>53</v>
+      </c>
+      <c r="E3" s="14">
+        <v>6.87</v>
       </c>
       <c r="F3" s="14">
-        <v>961.54</v>
+        <v>0</v>
       </c>
       <c r="G3" s="14">
-        <v>38.46</v>
+        <v>6.87</v>
       </c>
       <c r="H3" s="14">
         <v>0</v>
@@ -1161,33 +1161,33 @@
       <c r="I3" s="14">
         <v>0</v>
       </c>
-      <c r="J3" s="19">
-        <v>3216.49</v>
+      <c r="J3" s="14">
+        <v>0</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>146</v>
+        <v>6885</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17">
-        <v>41699</v>
+        <v>41680</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="14">
-        <v>19.23</v>
+        <v>14.79</v>
       </c>
       <c r="F4" s="14">
         <v>0</v>
       </c>
       <c r="G4" s="14">
-        <v>19.23</v>
+        <v>14.79</v>
       </c>
       <c r="H4" s="14">
         <v>0</v>
@@ -1203,25 +1203,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <v>144</v>
+        <v>6883</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="17">
-        <v>41685</v>
+        <v>41680</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E5" s="14">
-        <v>6.87</v>
+        <v>887.72</v>
       </c>
       <c r="F5" s="14">
-        <v>0</v>
+        <v>821.97</v>
       </c>
       <c r="G5" s="14">
-        <v>6.87</v>
+        <v>65.75</v>
       </c>
       <c r="H5" s="14">
         <v>0</v>
@@ -1229,33 +1229,33 @@
       <c r="I5" s="14">
         <v>0</v>
       </c>
-      <c r="J5" s="14">
-        <v>0</v>
+      <c r="J5" s="19">
+        <v>4178.03</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>136</v>
+        <v>6884</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="17">
-        <v>41680</v>
+        <v>41671</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" s="14">
-        <v>887.72</v>
+        <v>50.96</v>
       </c>
       <c r="F6" s="14">
-        <v>821.97</v>
+        <v>0</v>
       </c>
       <c r="G6" s="14">
-        <v>65.75</v>
+        <v>50.96</v>
       </c>
       <c r="H6" s="14">
         <v>0</v>
@@ -1263,33 +1263,33 @@
       <c r="I6" s="14">
         <v>0</v>
       </c>
-      <c r="J6" s="19">
-        <v>4178.03</v>
+      <c r="J6" s="14">
+        <v>0</v>
       </c>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
-        <v>142</v>
+        <v>6882</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="17">
-        <v>41671</v>
+        <v>41640</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="14">
-        <v>50.96</v>
+        <v>52</v>
+      </c>
+      <c r="E7" s="13">
+        <v>5000</v>
       </c>
       <c r="F7" s="14">
         <v>0</v>
       </c>
       <c r="G7" s="14">
-        <v>50.96</v>
+        <v>0</v>
       </c>
       <c r="H7" s="14">
         <v>0</v>
@@ -1297,41 +1297,7 @@
       <c r="I7" s="14">
         <v>0</v>
       </c>
-      <c r="J7" s="14">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>135</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17">
-        <v>41640</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="13">
-        <v>5000</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
+      <c r="J7" s="13">
         <v>5000</v>
       </c>
     </row>
